--- a/data/recipes/Recipe_template_2.xlsx
+++ b/data/recipes/Recipe_template_2.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$523</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1988,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2408,9 +2411,6 @@
       <c r="A51" t="s">
         <v>23</v>
       </c>
-      <c r="B51">
-        <v>455</v>
-      </c>
       <c r="C51" t="s">
         <v>191</v>
       </c>
@@ -2806,9 +2806,6 @@
       <c r="A100" t="s">
         <v>57</v>
       </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
       <c r="C100" t="s">
         <v>193</v>
       </c>
@@ -2833,9 +2830,6 @@
       <c r="A103" t="s">
         <v>60</v>
       </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
       <c r="C103" t="s">
         <v>192</v>
       </c>
@@ -2875,9 +2869,6 @@
     <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>65</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
       </c>
       <c r="C108" t="s">
         <v>192</v>
